--- a/src/tests/booklist.xlsx
+++ b/src/tests/booklist.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
   <si>
     <t xml:space="preserve">Title</t>
   </si>
@@ -31,6 +31,12 @@
     <t xml:space="preserve">Format</t>
   </si>
   <si>
+    <t xml:space="preserve">Publication Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purchased</t>
+  </si>
+  <si>
     <t xml:space="preserve">Quantity</t>
   </si>
   <si>
@@ -67,34 +73,7 @@
     <t xml:space="preserve">A. Parrot</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Annotated Notes on the ‘</t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Duck and Goose</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">’ chronicles</t>
-    </r>
+    <t xml:space="preserve">Annotated Notes on the ‘Duck and Goose’ chronicles</t>
   </si>
   <si>
     <t xml:space="preserve">Prof Macaw</t>
@@ -113,6 +92,9 @@
   </si>
   <si>
     <t xml:space="preserve">Bor Ing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Out of stock</t>
   </si>
   <si>
     <t xml:space="preserve">Oh No! The Chickens have Escaped!</t>
@@ -128,16 +110,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    <numFmt numFmtId="167" formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00"/>
   </numFmts>
   <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -159,25 +142,29 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
       <sz val="10"/>
+      <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -185,8 +172,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -210,36 +212,56 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Note" xfId="20"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -355,283 +377,357 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="44.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="8.39"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="15.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="8.39"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="A2" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="B2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>10</v>
+      </c>
       <c r="D2" s="1" t="n">
+        <v>42277</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>44774.5994791667</v>
+      </c>
+      <c r="F2" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="G2" s="3" t="n">
         <v>10.99</v>
       </c>
-      <c r="F2" s="2" t="n">
-        <f aca="false">D2*E2</f>
+      <c r="H2" s="3" t="n">
+        <f aca="false">F2*G2</f>
         <v>32.97</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>42306</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>44774.5994791667</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <f aca="false">F3*G3</f>
+        <v>99.95</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>42400</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>44774.5994791667</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>12.99</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <f aca="false">F4*G4</f>
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>43252</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>44774.5994791667</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <f aca="false">F5*G5</f>
+        <v>35.97</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>42278</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>44774.5994791667</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <f aca="false">F6*G6</f>
+        <v>59.97</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>19.99</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <f aca="false">D3*E3</f>
-        <v>99.95</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>42277</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>44774.5994791667</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>18.99</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <f aca="false">F7*G7</f>
+        <v>170.91</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>12.99</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <f aca="false">D4*E4</f>
-        <v>12.99</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="D8" s="1" t="n">
+        <v>43312</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>45139.5597453704</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <f aca="false">F8*G8</f>
+        <v>299.8</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>42430</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>45139.5597453704</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <f aca="false">F9*G9</f>
+        <v>89.9</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>43831</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>45139.5597453704</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="H10" s="3" t="n">
+        <f aca="false">F10*G10</f>
+        <v>299.5</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>43920</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>59.99</v>
+      </c>
+      <c r="H11" s="3" t="n">
+        <f aca="false">F11*G11</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>44896</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>45139.5597453704</v>
+      </c>
+      <c r="F12" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>11.99</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <f aca="false">D5*E5</f>
-        <v>35.97</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>19.99</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <f aca="false">D6*E6</f>
-        <v>59.97</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>18.99</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <f aca="false">D7*E7</f>
-        <v>170.91</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>14.99</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <f aca="false">D8*E8</f>
-        <v>299.8</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <f aca="false">D9*E9</f>
-        <v>89.9</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <f aca="false">D10*E10</f>
-        <v>299.5</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>59.99</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <f aca="false">D11*E11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="G12" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" s="3" t="n">
+        <f aca="false">F12*G12</f>
         <v>22</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F12" s="2" t="n">
-        <f aca="false">D12*E12</f>
-        <v>22</v>
-      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="1" t="n">
-        <f aca="false">SUM(D2:D12)</f>
+      <c r="A14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <f aca="false">SUM(F2:F12)</f>
         <v>115</v>
       </c>
-      <c r="F14" s="2" t="n">
-        <f aca="false">SUM(F2:F12)</f>
+      <c r="H14" s="3" t="n">
+        <f aca="false">SUM(H2:H12)</f>
         <v>1123.96</v>
       </c>
     </row>

--- a/src/tests/booklist.xlsx
+++ b/src/tests/booklist.xlsx
@@ -121,6 +121,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -138,16 +139,18 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -212,44 +215,48 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -261,7 +268,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Note" xfId="20"/>
+    <cellStyle name="Note 1" xfId="20"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -380,353 +387,353 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="15.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="8.39"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="44.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="15.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="15.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="8.39"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="4" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="2" t="n">
         <v>42277</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="3" t="n">
         <v>44774.5994791667</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="4" t="n">
         <v>10.99</v>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="H2" s="4" t="n">
         <f aca="false">F2*G2</f>
         <v>32.97</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="2" t="n">
         <v>42306</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="3" t="n">
         <v>44774.5994791667</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G3" s="3" t="n">
+      <c r="G3" s="4" t="n">
         <v>19.99</v>
       </c>
-      <c r="H3" s="3" t="n">
+      <c r="H3" s="4" t="n">
         <f aca="false">F3*G3</f>
         <v>99.95</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="2" t="n">
         <v>42400</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="3" t="n">
         <v>44774.5994791667</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="3" t="n">
+      <c r="G4" s="4" t="n">
         <v>12.99</v>
       </c>
-      <c r="H4" s="3" t="n">
+      <c r="H4" s="4" t="n">
         <f aca="false">F4*G4</f>
         <v>12.99</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="2" t="n">
         <v>43252</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="3" t="n">
         <v>44774.5994791667</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="G5" s="3" t="n">
+      <c r="G5" s="4" t="n">
         <v>11.99</v>
       </c>
-      <c r="H5" s="3" t="n">
+      <c r="H5" s="4" t="n">
         <f aca="false">F5*G5</f>
         <v>35.97</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="2" t="n">
         <v>42278</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="3" t="n">
         <v>44774.5994791667</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="G6" s="3" t="n">
+      <c r="G6" s="4" t="n">
         <v>19.99</v>
       </c>
-      <c r="H6" s="3" t="n">
+      <c r="H6" s="4" t="n">
         <f aca="false">F6*G6</f>
         <v>59.97</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="2" t="n">
         <v>42277</v>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="E7" s="3" t="n">
         <v>44774.5994791667</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="G7" s="3" t="n">
+      <c r="G7" s="4" t="n">
         <v>18.99</v>
       </c>
-      <c r="H7" s="3" t="n">
+      <c r="H7" s="4" t="n">
         <f aca="false">F7*G7</f>
         <v>170.91</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" s="2" t="n">
         <v>43312</v>
       </c>
-      <c r="E8" s="2" t="n">
-        <v>45139.5597453704</v>
-      </c>
-      <c r="F8" s="0" t="n">
+      <c r="E8" s="3" t="n">
+        <v>45013.5597453704</v>
+      </c>
+      <c r="F8" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="G8" s="3" t="n">
+      <c r="G8" s="4" t="n">
         <v>14.99</v>
       </c>
-      <c r="H8" s="3" t="n">
+      <c r="H8" s="4" t="n">
         <f aca="false">F8*G8</f>
         <v>299.8</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="D9" s="2" t="n">
         <v>42430</v>
       </c>
-      <c r="E9" s="2" t="n">
-        <v>45139.5597453704</v>
-      </c>
-      <c r="F9" s="0" t="n">
+      <c r="E9" s="3" t="n">
+        <v>45013.5597453704</v>
+      </c>
+      <c r="F9" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="G9" s="3" t="n">
+      <c r="G9" s="4" t="n">
         <v>8.99</v>
       </c>
-      <c r="H9" s="3" t="n">
+      <c r="H9" s="4" t="n">
         <f aca="false">F9*G9</f>
         <v>89.9</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="D10" s="2" t="n">
         <v>43831</v>
       </c>
-      <c r="E10" s="2" t="n">
-        <v>45139.5597453704</v>
-      </c>
-      <c r="F10" s="0" t="n">
+      <c r="E10" s="3" t="n">
+        <v>45013.5597453704</v>
+      </c>
+      <c r="F10" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="G10" s="3" t="n">
+      <c r="G10" s="4" t="n">
         <v>5.99</v>
       </c>
-      <c r="H10" s="3" t="n">
+      <c r="H10" s="4" t="n">
         <f aca="false">F10*G10</f>
         <v>299.5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="D11" s="2" t="n">
         <v>43920</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G11" s="3" t="n">
+      <c r="G11" s="4" t="n">
         <v>59.99</v>
       </c>
-      <c r="H11" s="3" t="n">
+      <c r="H11" s="4" t="n">
         <f aca="false">F11*G11</f>
         <v>0</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="1" t="n">
+      <c r="D12" s="2" t="n">
         <v>44896</v>
       </c>
-      <c r="E12" s="2" t="n">
-        <v>45139.5597453704</v>
-      </c>
-      <c r="F12" s="0" t="n">
+      <c r="E12" s="3" t="n">
+        <v>45013.5597453704</v>
+      </c>
+      <c r="F12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="G12" s="3" t="n">
+      <c r="G12" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H12" s="3" t="n">
+      <c r="H12" s="4" t="n">
         <f aca="false">F12*G12</f>
         <v>22</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14" s="1" t="n">
         <f aca="false">SUM(F2:F12)</f>
         <v>115</v>
       </c>
-      <c r="H14" s="3" t="n">
+      <c r="H14" s="4" t="n">
         <f aca="false">SUM(H2:H12)</f>
         <v>1123.96</v>
       </c>
